--- a/document/文件设计清单.xlsx
+++ b/document/文件设计清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>文档修改记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -258,6 +258,42 @@
   </si>
   <si>
     <t>未绑定的逆变器ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastgfdi.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次接地保护的状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：2016122200010END</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastturn.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次开关机状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limiteid.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动组网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：绑定逆变器 0：不用重新绑定逆变器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,83 +474,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,393 +848,417 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="22.875" customWidth="1"/>
     <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="26" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="16" customWidth="1"/>
     <col min="6" max="6" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>42382</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="13"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="17" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" ht="24.75" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="10"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="8"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="10"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="8"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="8"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="10"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="8"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="8"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="8"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="10"/>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="8"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10"/>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10"/>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="8"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="8"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="10"/>
-      <c r="B26" s="8" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10"/>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10"/>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="8"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="8"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="27">
+      <c r="A31" s="18"/>
+      <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="8"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="8"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/document/文件设计清单.xlsx
+++ b/document/文件设计清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>文档修改记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -137,10 +137,6 @@
     <t>1:SAA; 2:NA; 3:MX</t>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>area.con</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -269,10 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>例如：2016122200010END</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -294,6 +286,66 @@
   </si>
   <si>
     <t>1：绑定逆变器 0：不用重新绑定逆变器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proc_res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三级目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inversta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存上传到EMA的逆变器状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存上传到EMA的逆变器发电量数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于日期.dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：20170323.dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conemafl.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接EMA标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：disconnected  未连接；2：connected 连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con_ema.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一次连接服务器时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -470,7 +522,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +573,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,33 +901,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="12.25" customWidth="1"/>
-    <col min="3" max="3" width="22.875" customWidth="1"/>
-    <col min="4" max="4" width="42.125" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="16" customWidth="1"/>
-    <col min="6" max="6" width="27.875" customWidth="1"/>
+    <col min="2" max="3" width="12.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="42.125" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="16" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -892,7 +948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>42382</v>
       </c>
@@ -908,7 +964,7 @@
       <c r="E3" s="11"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -916,7 +972,7 @@
       <c r="E4" s="11"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -924,349 +980,444 @@
       <c r="E5" s="11"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7" s="6"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="20"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A10" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-    </row>
-    <row r="11" spans="1:6" ht="24.75" customHeight="1">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="17" t="s">
+      <c r="G11" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="F12" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="18"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19"/>
+      <c r="B13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="18"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="18"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="18"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19"/>
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="19"/>
+      <c r="B15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="18"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="19"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="19"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="20"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="17" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="F19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="19"/>
+      <c r="B20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="18"/>
-      <c r="B20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="E20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="19"/>
+      <c r="B21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="18"/>
-      <c r="B21" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="14" t="s">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="19"/>
+      <c r="B22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="18"/>
-      <c r="B22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="18"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="19"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="27">
+      <c r="A23" s="19"/>
+      <c r="B23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="20"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="17" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="E25" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="19"/>
+      <c r="B26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="18"/>
-      <c r="B26" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="9" t="s">
+      <c r="F26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="19"/>
+      <c r="B27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="18"/>
-      <c r="B27" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="9" t="s">
+      <c r="F27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="19"/>
+      <c r="B28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="18"/>
-      <c r="B28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="F28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="18"/>
-      <c r="B29" s="4" t="s">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="19"/>
+      <c r="B29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="19"/>
+      <c r="B30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="E30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="18"/>
-      <c r="B30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="9" t="s">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="27">
+      <c r="A31" s="19"/>
+      <c r="B31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" ht="27">
-      <c r="A31" s="18"/>
-      <c r="B31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="9" t="s">
+      <c r="F31" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="18"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="19"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="19"/>
+      <c r="B32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="20"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A25:A33"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="A19:A24"/>
   </mergeCells>

--- a/document/文件设计清单.xlsx
+++ b/document/文件设计清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>文档修改记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -346,6 +346,61 @@
   </si>
   <si>
     <t>最后一次连接服务器时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据，时间，发送标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据，cmd_id，发送标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inprores</t>
+  </si>
+  <si>
+    <t>处理结果ECU级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理结果逆变器级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据，逆变器ID，cmd_id，发送标志位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定逆变器相关信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201703150001,58852,7,1,1,48,0
+201703220001,14354,7,1,1,48,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆变器ID，短地址，版本号，软件版本号，绑定ZIGBEE标志，zigbee版本号，标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ecu_flag.con</t>
+  </si>
+  <si>
+    <t>ecu的通讯开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A118.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次使用时含有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +577,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,6 +628,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -901,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -913,20 +971,20 @@
     <col min="2" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="25.25" style="16" customWidth="1"/>
-    <col min="7" max="7" width="27.875" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="16" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -981,15 +1039,15 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
@@ -1006,25 +1064,25 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="21"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -1050,7 +1108,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1070,59 +1128,67 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:7" ht="36" customHeight="1">
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20"/>
+      <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19"/>
-      <c r="B14" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="4" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1131,7 +1197,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1139,7 +1205,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="12.75" customHeight="1">
       <c r="A18" s="20"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1149,277 +1215,363 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>58</v>
+      <c r="A19" s="20"/>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19"/>
-      <c r="B20" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>58</v>
+      <c r="A20" s="20"/>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19"/>
-      <c r="B21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="A21" s="20"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19"/>
-      <c r="B22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A22" s="20"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="14"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="27">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="4" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="21"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="20"/>
+      <c r="B25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="14"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="20"/>
+      <c r="B27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="27">
+      <c r="A28" s="20"/>
+      <c r="B28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="20"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="18" t="s">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="21"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19"/>
-      <c r="B26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="9" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F31" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19"/>
-      <c r="B27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="9" t="s">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="20"/>
+      <c r="B32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19"/>
-      <c r="B28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="19"/>
-      <c r="B29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="19"/>
-      <c r="B30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="27">
-      <c r="A31" s="19"/>
-      <c r="B31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="19"/>
-      <c r="B32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="15"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="20"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20"/>
+      <c r="B34" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20"/>
+      <c r="B35" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="27">
+      <c r="A36" s="20"/>
+      <c r="B36" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+      <c r="B37" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="20"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="21"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="14"/>
+      <c r="G39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A25:A33"/>
+    <mergeCell ref="A30:A39"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="A24:A29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/文件设计清单.xlsx
+++ b/document/文件设计清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
   <si>
     <t>文档修改记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -401,6 +401,22 @@
   </si>
   <si>
     <t>第一次使用时含有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datacent.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程控制服务器参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据上传服务器参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +593,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -628,6 +644,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -959,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -976,15 +995,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1039,15 +1058,15 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
@@ -1064,25 +1083,25 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="22"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -1108,7 +1127,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1129,7 +1148,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1150,7 +1169,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1169,7 +1188,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1188,7 +1207,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1197,7 +1216,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1206,7 +1225,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1215,7 +1234,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="4" t="s">
         <v>60</v>
       </c>
@@ -1236,7 +1255,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="4" t="s">
         <v>60</v>
       </c>
@@ -1257,7 +1276,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1266,7 +1285,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1275,7 +1294,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="21"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1284,7 +1303,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="20" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -1305,7 +1324,7 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="20"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="17" t="s">
         <v>58</v>
       </c>
@@ -1322,7 +1341,7 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="20"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
@@ -1341,7 +1360,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="20"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="17" t="s">
         <v>58</v>
       </c>
@@ -1356,7 +1375,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="27">
-      <c r="A28" s="20"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="17" t="s">
         <v>58</v>
       </c>
@@ -1375,7 +1394,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -1384,7 +1403,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>18</v>
       </c>
       <c r="B30" s="17" t="s">
@@ -1407,7 +1426,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="20"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="17" t="s">
         <v>58</v>
       </c>
@@ -1426,7 +1445,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="20"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="17" t="s">
         <v>58</v>
       </c>
@@ -1445,7 +1464,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="20"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="17" t="s">
         <v>58</v>
       </c>
@@ -1464,7 +1483,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="20"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="17" t="s">
         <v>58</v>
       </c>
@@ -1483,7 +1502,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="20"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="17" t="s">
         <v>58</v>
       </c>
@@ -1502,7 +1521,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="27">
-      <c r="A36" s="20"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="17" t="s">
         <v>58</v>
       </c>
@@ -1521,7 +1540,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="20"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="17" t="s">
         <v>58</v>
       </c>
@@ -1538,7 +1557,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="20"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="9" t="s">
@@ -1552,20 +1571,46 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="21"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="21"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="15"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="22"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="4"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A30:A39"/>
+    <mergeCell ref="A30:A41"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:G6"/>

--- a/document/文件设计清单.xlsx
+++ b/document/文件设计清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
   <si>
     <t>文档修改记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -389,34 +389,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ecu的通讯开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A118.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次使用时含有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datacent.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>control.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程控制服务器参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据上传服务器参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放逆变器最大功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxpower.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取最大功率标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL：表示接下来在MAIN线程中获取最大功率相关数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ecu_flag.con</t>
-  </si>
-  <si>
-    <t>ecu的通讯开关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A118.con</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次使用时含有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datacent.con</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>control.con</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程控制服务器参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据上传服务器参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取逆变器电网环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getgride.con</t>
+  </si>
+  <si>
+    <t>setgride.con</t>
+  </si>
+  <si>
+    <t>设置所有逆变器电网环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>turnonof</t>
+  </si>
+  <si>
+    <t>开关机配置表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clrgfdi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除gfdi表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gfidenv</t>
+  </si>
+  <si>
+    <t>电网环境表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set_ird.con</t>
+  </si>
+  <si>
+    <t>设置ird标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_ird.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取ird标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readalsg.con</t>
+  </si>
+  <si>
+    <t>读取所有电网强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploadsg.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载电网强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getbadid.con</t>
+  </si>
+  <si>
+    <t>获取错误的id配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>need_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置3501正确id的表格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plcgridq.txt</t>
+  </si>
+  <si>
+    <t>上报plc电网质量配置文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -654,6 +767,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -683,6 +799,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -978,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -995,15 +1120,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1058,15 +1183,15 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
@@ -1083,25 +1208,25 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -1127,7 +1252,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1148,7 +1273,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1169,7 +1294,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1188,7 +1313,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1207,85 +1332,101 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="F16" s="14"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="21"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="F17" s="14"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="22"/>
+      <c r="B18" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
+        <v>88</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="21"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>61</v>
+        <v>88</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F20" s="14"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="21"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="20"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="14"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A22" s="22"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1295,87 +1436,77 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="22"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>58</v>
+      <c r="A24" s="22"/>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="4"/>
+        <v>71</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="21"/>
-      <c r="B25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>47</v>
-      </c>
+      <c r="A25" s="22"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="14"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="21"/>
-      <c r="B26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>43</v>
-      </c>
+      <c r="A26" s="22"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="21"/>
-      <c r="B27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A27" s="23"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="14"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="27">
-      <c r="A28" s="21"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="B28" s="17" t="s">
         <v>58</v>
       </c>
@@ -1383,240 +1514,451 @@
         <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>68</v>
+        <v>41</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="22"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="B29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="F29" s="14"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="20" t="s">
-        <v>18</v>
-      </c>
+      <c r="A30" s="22"/>
       <c r="B30" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>27</v>
-      </c>
+      <c r="D31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="21"/>
+    <row r="32" spans="1:7" ht="27">
+      <c r="A32" s="22"/>
       <c r="B32" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>29</v>
+      <c r="D32" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="21"/>
-      <c r="B33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="17" t="s">
+    <row r="33" spans="1:7" ht="27">
+      <c r="A33" s="22"/>
+      <c r="B33" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>34</v>
+        <v>92</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="21"/>
-      <c r="B34" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="A34" s="22"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F34" s="15"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="21"/>
-      <c r="B35" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="A35" s="22"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="15"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="27">
-      <c r="A36" s="21"/>
-      <c r="B36" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>55</v>
-      </c>
+    <row r="36" spans="1:7">
+      <c r="A36" s="22"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F36" s="15"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="21"/>
-      <c r="B37" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>70</v>
+      <c r="A37" s="22"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>84</v>
+      <c r="A38" s="22"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="21"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>88</v>
+      <c r="A39" s="22"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="21"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="9" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="22"/>
+      <c r="B42" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="22"/>
+      <c r="B43" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="22"/>
+      <c r="B44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="22"/>
+      <c r="B45" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="22"/>
+      <c r="B46" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="27">
+      <c r="A47" s="22"/>
+      <c r="B47" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="4"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="22"/>
+      <c r="B48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="22"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="22"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="15"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="22"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="22"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
+      <c r="F51" s="15"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="22"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="4"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="22"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="22"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="4"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="23"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="4"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A30:A41"/>
+    <mergeCell ref="A41:A55"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="A12:A27"/>
+    <mergeCell ref="A28:A40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/文件设计清单.xlsx
+++ b/document/文件设计清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="129">
   <si>
     <t>文档修改记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -530,6 +530,43 @@
   </si>
   <si>
     <t>上报plc电网质量配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iproc_res</t>
+  </si>
+  <si>
+    <t>处理结果逆变器级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qckboot.con</t>
+  </si>
+  <si>
+    <t>快速启动配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>connect.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开关机配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipp.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPP设定配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>presdata.con</t>
+  </si>
+  <si>
+    <t>读取逆变器交流保护参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,6 +807,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,15 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,10 +1143,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1120,15 +1160,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1183,15 +1223,15 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
@@ -1208,25 +1248,25 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -1252,7 +1292,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1273,7 +1313,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1294,7 +1334,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="22"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1313,43 +1353,41 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="22"/>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A15" s="26"/>
+      <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="26"/>
+      <c r="B16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="22"/>
-      <c r="B16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F16" s="14"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="22"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="4" t="s">
         <v>88</v>
       </c>
@@ -1357,16 +1395,16 @@
         <v>58</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
@@ -1374,16 +1412,16 @@
         <v>58</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
@@ -1391,16 +1429,16 @@
         <v>58</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
@@ -1408,66 +1446,62 @@
         <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="22"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="F21" s="14"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A22" s="22"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="26"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="14"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
-      <c r="B23" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>65</v>
-      </c>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>71</v>
@@ -1477,16 +1511,28 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="22"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="4"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="22"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1495,7 +1541,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="23"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1504,461 +1550,531 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="B29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F29" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="22"/>
-      <c r="B29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="4" t="s">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="26"/>
+      <c r="B30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="22"/>
-      <c r="B30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="4" t="s">
+      <c r="F30" s="14"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="26"/>
+      <c r="B31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="22"/>
-      <c r="B31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="4" t="s">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="26"/>
+      <c r="B32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="27">
-      <c r="A32" s="22"/>
-      <c r="B32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="27">
+      <c r="A33" s="26"/>
+      <c r="B33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F33" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="27">
-      <c r="A33" s="22"/>
-      <c r="B33" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="4" t="s">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="27">
+      <c r="A34" s="26"/>
+      <c r="B34" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F34" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="22"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" s="15"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="22"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F35" s="15"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="22"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="4" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F36" s="15"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="22"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F37" s="15"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="22"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F38" s="15"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="22"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="23"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="14"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="15"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="26"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F42" s="15"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="26"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="26"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44" s="15"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="26"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="27"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="B47" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="15" t="s">
+      <c r="F47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="22"/>
-      <c r="B42" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="9" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="26"/>
+      <c r="B48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="15" t="s">
+      <c r="F48" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="22"/>
-      <c r="B43" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="9" t="s">
+      <c r="G48" s="4"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="26"/>
+      <c r="B49" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F49" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="22"/>
-      <c r="B44" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="4" t="s">
+      <c r="G49" s="4"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="26"/>
+      <c r="B50" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F50" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="22"/>
-      <c r="B45" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="9" t="s">
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="26"/>
+      <c r="B51" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="E51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F45" s="15" t="s">
+      <c r="F51" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="22"/>
-      <c r="B46" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="9" t="s">
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="26"/>
+      <c r="B52" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E52" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="15" t="s">
+      <c r="F52" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="27">
-      <c r="A47" s="22"/>
-      <c r="B47" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="9" t="s">
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="1:7" ht="27">
+      <c r="A53" s="26"/>
+      <c r="B53" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E53" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="15" t="s">
+      <c r="F53" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="22"/>
-      <c r="B48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="9" t="s">
+      <c r="G53" s="4"/>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="26"/>
+      <c r="B54" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E54" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="F48" s="15"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="22"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="22"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F50" s="15"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="22"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="22"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="15"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="22"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="22"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>118</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="23"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="14"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F55" s="15"/>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="32"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F56" s="15"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="26"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="4"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="26"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="15"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="26"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="4"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="26"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="15"/>
+      <c r="G60" s="4"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="27"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="4"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A41:A55"/>
+    <mergeCell ref="A47:A61"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="A28:A40"/>
+    <mergeCell ref="A12:A28"/>
+    <mergeCell ref="A29:A46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/文件设计清单.xlsx
+++ b/document/文件设计清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>文档修改记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -567,6 +567,14 @@
   </si>
   <si>
     <t>读取逆变器交流保护参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timezine.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时区配置文件（不存在默认为东8区  中国）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,6 +826,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1143,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1160,15 +1171,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1223,15 +1234,15 @@
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="5"/>
@@ -1248,25 +1259,25 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -1292,7 +1303,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="26" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1313,7 +1324,7 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="4" t="s">
         <v>35</v>
       </c>
@@ -1334,7 +1345,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1353,7 +1364,7 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
         <v>119</v>
@@ -1368,7 +1379,7 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1387,7 +1398,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="4" t="s">
         <v>88</v>
       </c>
@@ -1404,7 +1415,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
@@ -1421,7 +1432,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
@@ -1438,7 +1449,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="4" t="s">
         <v>88</v>
       </c>
@@ -1455,7 +1466,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="4" t="s">
         <v>88</v>
       </c>
@@ -1472,7 +1483,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="4"/>
       <c r="C22" s="20"/>
       <c r="D22" s="4"/>
@@ -1481,7 +1492,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A23" s="26"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1490,7 +1501,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="26"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
@@ -1511,7 +1522,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="26"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="4" t="s">
         <v>60</v>
       </c>
@@ -1532,7 +1543,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="26"/>
+      <c r="A26" s="27"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1541,7 +1552,7 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="26"/>
+      <c r="A27" s="27"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -1550,7 +1561,7 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="27"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1559,7 +1570,7 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="26" t="s">
         <v>17</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -1580,7 +1591,7 @@
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="26"/>
+      <c r="A30" s="27"/>
       <c r="B30" s="17" t="s">
         <v>58</v>
       </c>
@@ -1597,7 +1608,7 @@
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="26"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="17" t="s">
         <v>58</v>
       </c>
@@ -1616,7 +1627,7 @@
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="26"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="17" t="s">
         <v>58</v>
       </c>
@@ -1631,7 +1642,7 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="27">
-      <c r="A33" s="26"/>
+      <c r="A33" s="27"/>
       <c r="B33" s="17" t="s">
         <v>58</v>
       </c>
@@ -1650,7 +1661,7 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="27">
-      <c r="A34" s="26"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="20" t="s">
         <v>58</v>
       </c>
@@ -1669,7 +1680,7 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="26"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="4" t="s">
@@ -1682,7 +1693,7 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="26"/>
+      <c r="A36" s="27"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
       <c r="D36" s="4" t="s">
@@ -1695,7 +1706,7 @@
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="26"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="4" t="s">
@@ -1708,7 +1719,7 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="26"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
       <c r="D38" s="4" t="s">
@@ -1721,7 +1732,7 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="26"/>
+      <c r="A39" s="27"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
       <c r="D39" s="4" t="s">
@@ -1734,7 +1745,7 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="26"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
       <c r="D40" s="4" t="s">
@@ -1747,7 +1758,7 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="26"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="21"/>
       <c r="C41" s="21"/>
       <c r="D41" s="4" t="s">
@@ -1760,7 +1771,7 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="26"/>
+      <c r="A42" s="27"/>
       <c r="B42" s="21"/>
       <c r="C42" s="21"/>
       <c r="D42" s="4" t="s">
@@ -1773,7 +1784,7 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="26"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
       <c r="D43" s="4" t="s">
@@ -1786,7 +1797,7 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="26"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="21"/>
       <c r="C44" s="21"/>
       <c r="D44" s="4" t="s">
@@ -1799,7 +1810,7 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="26"/>
+      <c r="A45" s="27"/>
       <c r="B45" s="21"/>
       <c r="C45" s="21"/>
       <c r="D45" s="4"/>
@@ -1808,7 +1819,7 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="27"/>
+      <c r="A46" s="28"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -1817,7 +1828,7 @@
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="26" t="s">
         <v>18</v>
       </c>
       <c r="B47" s="17" t="s">
@@ -1840,7 +1851,7 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="26"/>
+      <c r="A48" s="27"/>
       <c r="B48" s="17" t="s">
         <v>58</v>
       </c>
@@ -1859,7 +1870,7 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="26"/>
+      <c r="A49" s="27"/>
       <c r="B49" s="17" t="s">
         <v>58</v>
       </c>
@@ -1878,7 +1889,7 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="26"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="17" t="s">
         <v>58</v>
       </c>
@@ -1897,7 +1908,7 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="26"/>
+      <c r="A51" s="27"/>
       <c r="B51" s="17" t="s">
         <v>58</v>
       </c>
@@ -1916,7 +1927,7 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="26"/>
+      <c r="A52" s="27"/>
       <c r="B52" s="17" t="s">
         <v>58</v>
       </c>
@@ -1935,7 +1946,7 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="27">
-      <c r="A53" s="26"/>
+      <c r="A53" s="27"/>
       <c r="B53" s="17" t="s">
         <v>58</v>
       </c>
@@ -1954,7 +1965,7 @@
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="26"/>
+      <c r="A54" s="27"/>
       <c r="B54" s="17" t="s">
         <v>58</v>
       </c>
@@ -1971,7 +1982,7 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="26"/>
+      <c r="A55" s="27"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="9" t="s">
@@ -1984,7 +1995,7 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="26"/>
+      <c r="A56" s="27"/>
       <c r="B56" s="19"/>
       <c r="C56" s="19"/>
       <c r="D56" s="9" t="s">
@@ -1997,7 +2008,7 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="26"/>
+      <c r="A57" s="27"/>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
       <c r="D57" s="9" t="s">
@@ -2010,7 +2021,7 @@
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="26"/>
+      <c r="A58" s="27"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
       <c r="D58" s="4" t="s">
@@ -2023,7 +2034,7 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="26"/>
+      <c r="A59" s="27"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
       <c r="D59" s="9" t="s">
@@ -2036,7 +2047,7 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="26"/>
+      <c r="A60" s="27"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
       <c r="D60" s="9" t="s">
@@ -2050,25 +2061,56 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="27"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="14"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="F61" s="15"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="23"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="4"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="27"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="28"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A47:A61"/>
+    <mergeCell ref="A47:A64"/>
     <mergeCell ref="F8:G9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A6:G6"/>

--- a/document/文件设计清单.xlsx
+++ b/document/文件设计清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="168">
   <si>
     <t>文档修改记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>注：因为文件系统只支持大写，若文档中为小写按照实际大写为准。二级目录若不存在则填写无。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电压值计算公式版本文件</t>
   </si>
   <si>
@@ -341,10 +337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>con_ema.con</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>最后一次连接服务器时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>power</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -533,36 +521,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iproc_res</t>
-  </si>
-  <si>
-    <t>处理结果逆变器级别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>qckboot.con</t>
   </si>
   <si>
-    <t>快速启动配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>connect.con</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开关机配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ipp.con</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IPP设定配置文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>presdata.con</t>
   </si>
   <si>
@@ -570,11 +539,189 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>timezine.con</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>时区配置文件（不存在默认为东8区  中国）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>changech.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变信道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old_chan.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧的信道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_chan.con</t>
+  </si>
+  <si>
+    <t>新的信道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vernum.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ftpadd.con</t>
+  </si>
+  <si>
+    <t>FTP服务器参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>procgfdi.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程控制GFDI相关命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程控制连接命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程控制快速启动命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程控制IPP命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powerall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取系统最大功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解析并保存IRD设置结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setpropa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proparas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timezone.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>con_time.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMA配置文件（暂时没用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoflag.con</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动上报标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>--------------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>event</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近一轮的事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>restinv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还原逆变器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signstre</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号强度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upinv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新逆变器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setpropi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置保护参数（ECU级别）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置保护参数（逆变器级别）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radui.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>----------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增和修改文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：因为文件系统只支持大写，若文档中为小写按照实际大写为准。二级目录若不存在则填写-。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +729,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -661,6 +808,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -676,7 +837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -700,9 +861,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -716,31 +884,127 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="dashed">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="dashed">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -751,7 +1015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,9 +1028,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -779,9 +1040,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -794,71 +1052,110 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1166,20 +1463,20 @@
     <col min="2" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="42.125" customWidth="1"/>
-    <col min="6" max="6" width="32.875" style="16" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="6" max="6" width="32.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="30.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1194,16 +1491,17 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2">
-        <v>42382</v>
+        <v>42748</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
@@ -1214,909 +1512,974 @@
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="9"/>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5">
+      <c r="A4" s="2">
+        <v>42859</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="11"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="3"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="9"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="45"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="29" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.75" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="36" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="25"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="1:7" ht="27">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="25"/>
+    </row>
+    <row r="37" spans="1:7" ht="27">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="21"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="29"/>
+      <c r="G38" s="25"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F39" s="29"/>
+      <c r="G39" s="25"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="21"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" s="29"/>
+      <c r="G40" s="25"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="21"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="25"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="21"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="29"/>
+      <c r="G42" s="25"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="21"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F43" s="29"/>
+      <c r="G43" s="25"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="21"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" s="29"/>
+      <c r="G44" s="25"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="21"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="29"/>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="21"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="29"/>
+      <c r="G46" s="25"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="21"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="F47" s="29"/>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="29"/>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="F49" s="29"/>
+      <c r="G49" s="25"/>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="21"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="29"/>
+      <c r="G50" s="25"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="25"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="21"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="23"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="25"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="D53" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="F53" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="36" customHeight="1">
-      <c r="A13" s="27"/>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="14" t="s">
+    <row r="54" spans="1:7">
+      <c r="A54" s="21"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="25"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="21"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" s="25"/>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="21"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G57" s="25"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="21"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G58" s="25"/>
+    </row>
+    <row r="59" spans="1:7" ht="27">
+      <c r="A59" s="21"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F59" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="29"/>
+      <c r="G60" s="25"/>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="E61" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" s="29"/>
+      <c r="G61" s="25"/>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="29"/>
+      <c r="G62" s="25"/>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="21"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" s="29"/>
+      <c r="G63" s="25"/>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="21"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="27"/>
-      <c r="B14" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="27"/>
-      <c r="B16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="27"/>
-      <c r="B17" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="27"/>
-      <c r="B18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="27"/>
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="27"/>
-      <c r="B20" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="27"/>
-      <c r="B21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="F64" s="29"/>
+      <c r="G64" s="25"/>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F65" s="29"/>
+      <c r="G65" s="25"/>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="21"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="30" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="27"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A23" s="27"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="27"/>
-      <c r="B24" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="27"/>
-      <c r="B25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="27"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="27"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="28"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="27"/>
-      <c r="B30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="27"/>
-      <c r="B31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="27"/>
-      <c r="B32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="27">
-      <c r="A33" s="27"/>
-      <c r="B33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="15" t="s">
+      <c r="F66" s="29"/>
+      <c r="G66" s="25"/>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="21"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="29"/>
+      <c r="G67" s="25"/>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="21"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F68" s="29"/>
+      <c r="G68" s="25"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="21"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="29"/>
+      <c r="G69" s="25"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="21"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="E70" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="27">
-      <c r="A34" s="27"/>
-      <c r="B34" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="27"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="27"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36" s="15"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="27"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="27"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="15"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="27"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="27"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="27"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="27"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="15"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="27"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="27"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F44" s="15"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="27"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="28"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="27"/>
-      <c r="B48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="27"/>
-      <c r="B49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="27"/>
-      <c r="B50" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="27"/>
-      <c r="B51" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="27"/>
-      <c r="B52" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="27">
-      <c r="A53" s="27"/>
-      <c r="B53" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="27"/>
-      <c r="B54" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="15"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="27"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="27"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F56" s="15"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="27"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="27"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="15"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="27"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="27"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F60" s="15"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="27"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="27"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="27"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="28"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="23"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="25"/>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="31"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" s="34"/>
+      <c r="G71" s="35"/>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A47:A64"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A6:G6"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E8:G9"/>
+    <mergeCell ref="A53:A71"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:A28"/>
-    <mergeCell ref="A29:A46"/>
+    <mergeCell ref="A12:A31"/>
+    <mergeCell ref="A32:A52"/>
+    <mergeCell ref="B53:C71"/>
+    <mergeCell ref="B12:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C16:C28"/>
+    <mergeCell ref="B32:C52"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/文件设计清单.xlsx
+++ b/document/文件设计清单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="170">
   <si>
     <t>文档修改记录</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -722,6 +722,14 @@
   </si>
   <si>
     <t>注：因为文件系统只支持大写，若文档中为小写按照实际大写为准。二级目录若不存在则填写-。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放从FTP服务器下载下来的文件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -837,7 +845,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1009,13 +1017,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1064,14 +1083,77 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1079,82 +1161,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1453,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1468,15 +1490,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="34"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -1541,15 +1563,15 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="13.5" customHeight="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="45"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4"/>
@@ -1565,27 +1587,27 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
     </row>
     <row r="11" spans="1:7" ht="24.75" customHeight="1">
       <c r="A11" s="6" t="s">
@@ -1611,857 +1633,861 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="40"/>
+      <c r="G12" s="28"/>
     </row>
     <row r="13" spans="1:7" ht="36" customHeight="1">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="42" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="19" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="G15" s="25"/>
+      <c r="G15" s="18"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="42" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="42" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="42" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="21"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="42" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="18"/>
     </row>
     <row r="21" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="42" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="42" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="18"/>
     </row>
     <row r="23" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="42" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="42" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
     </row>
     <row r="25" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="42" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="42" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
     </row>
     <row r="27" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="42" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="42" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="D29" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="18" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="27" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="E31" s="23" t="s">
+      <c r="E31" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="42" t="s">
+      <c r="C32" s="44"/>
+      <c r="D32" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="24" t="s">
+      <c r="F32" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="42" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="42" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="18"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="42" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" ht="27">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="42" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="23" t="s">
+      <c r="E36" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="29" t="s">
+      <c r="F36" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G36" s="25"/>
+      <c r="G36" s="18"/>
     </row>
     <row r="37" spans="1:7" ht="27">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="42" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="23" t="s">
+      <c r="E37" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="29" t="s">
+      <c r="F37" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G37" s="25"/>
+      <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="42" t="s">
+      <c r="A38" s="38"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="25"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="18"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="21"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="42" t="s">
+      <c r="A39" s="38"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="25"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="21"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="42" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="25"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="18"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="42" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="E41" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="29"/>
-      <c r="G41" s="25"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="42" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="E42" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F42" s="29"/>
-      <c r="G42" s="25"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="18"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="42" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="23" t="s">
+      <c r="E43" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="F43" s="29"/>
-      <c r="G43" s="25"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="42" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="23" t="s">
+      <c r="E44" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F44" s="29"/>
-      <c r="G44" s="25"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="42" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="29"/>
-      <c r="G45" s="25"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="42" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="29"/>
-      <c r="G46" s="25"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="42" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="29"/>
-      <c r="G47" s="25"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="42" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F48" s="29"/>
-      <c r="G48" s="25"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="18"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="42" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="F49" s="29"/>
-      <c r="G49" s="25"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="42" t="s">
+      <c r="A50" s="38"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="30" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="23" t="s">
+      <c r="E50" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="25"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="18"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="42" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="25"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="21"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="42" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="25"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="18"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="22"/>
-      <c r="D53" s="43" t="s">
+      <c r="C53" s="44"/>
+      <c r="D53" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="25" t="s">
+      <c r="G53" s="18" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="43" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E54" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G54" s="25"/>
+      <c r="G54" s="18"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="43" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E55" s="30" t="s">
+      <c r="E55" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G55" s="25"/>
+      <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="42" t="s">
+      <c r="A56" s="38"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E56" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="24" t="s">
+      <c r="F56" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G56" s="25"/>
+      <c r="G56" s="18"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="43" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="30" t="s">
+      <c r="E57" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G57" s="25"/>
+      <c r="G57" s="18"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="43" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E58" s="30" t="s">
+      <c r="E58" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G58" s="25"/>
+      <c r="G58" s="18"/>
     </row>
     <row r="59" spans="1:7" ht="27">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="43" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="G59" s="25"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="43" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E60" s="30" t="s">
+      <c r="E60" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="25"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="43" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="30" t="s">
+      <c r="E61" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="F61" s="29"/>
-      <c r="G61" s="25"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="43" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E62" s="30" t="s">
+      <c r="E62" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="F62" s="29"/>
-      <c r="G62" s="25"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="18"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="43" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="30" t="s">
+      <c r="E63" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="F63" s="29"/>
-      <c r="G63" s="25"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="18"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="42" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="E64" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="F64" s="29"/>
-      <c r="G64" s="25"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="18"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="21"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="43" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="E65" s="30" t="s">
+      <c r="E65" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="25"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="18"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="21"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="43" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F66" s="29"/>
-      <c r="G66" s="25"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="18"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="43" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E67" s="30" t="s">
+      <c r="E67" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="29"/>
-      <c r="G67" s="25"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="18"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="43" t="s">
+      <c r="A68" s="38"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="E68" s="30" t="s">
+      <c r="E68" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="F68" s="29"/>
-      <c r="G68" s="25"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="18"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="42" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="E69" s="30" t="s">
+      <c r="E69" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="25"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="18"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="43" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E70" s="30" t="s">
+      <c r="E70" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="F70" s="29"/>
-      <c r="G70" s="25"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="18"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="31"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="44" t="s">
+      <c r="A71" s="39"/>
+      <c r="B71" s="45"/>
+      <c r="C71" s="45"/>
+      <c r="D71" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="E71" s="33" t="s">
+      <c r="E71" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F71" s="34"/>
-      <c r="G71" s="35"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="25"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="13"/>
+      <c r="A72" s="13" t="s">
+        <v>168</v>
+      </c>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
+      <c r="E72" s="47" t="s">
+        <v>169</v>
+      </c>
       <c r="F72" s="15"/>
       <c r="G72" s="14"/>
     </row>
